--- a/Designs/Armour Resistances/Main Resistances Excel.xlsx
+++ b/Designs/Armour Resistances/Main Resistances Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Dawn of War Soulstorm\TFE\Designs\Armour Resistances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9748E44C-3DCB-4384-BBCA-AEA3C7C3D71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7D2963-702C-492A-AA3D-BDCCB05D011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5469DD4F-53AB-4850-AB03-92E81BF2480D}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{5469DD4F-53AB-4850-AB03-92E81BF2480D}"/>
   </bookViews>
   <sheets>
     <sheet name="Entites" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="562">
   <si>
     <t>chaos_armoury</t>
   </si>
@@ -1711,14 +1711,34 @@
   </si>
   <si>
     <t>Min Armour Value</t>
+  </si>
+  <si>
+    <t>&lt;- this should probably upgrade every NW upgrade to 50, 55, 60</t>
+  </si>
+  <si>
+    <t>&lt;- possibly this can upgrade from artefacts?.</t>
+  </si>
+  <si>
+    <t>&lt;-This is I.HH so acts as terminator</t>
+  </si>
+  <si>
+    <t>&lt;- possibly heavy..?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1746,11 +1766,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2085,32 +2106,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22E6C10-3E35-4309-8068-49DD0712AAA0}">
-  <dimension ref="A1:C549"/>
+  <dimension ref="A1:D549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.28515625" customWidth="1"/>
+    <col min="1" max="1" width="68.33203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2134,7 +2155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2146,7 +2167,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +2179,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2170,7 +2191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2194,7 +2215,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2206,7 +2227,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2230,7 +2251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2242,7 +2263,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2251,7 +2272,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2260,7 +2281,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2269,7 +2290,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2278,7 +2299,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2287,7 +2308,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2296,7 +2317,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2305,7 +2326,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2314,7 +2335,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2323,7 +2344,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2332,7 +2353,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2341,7 +2362,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2353,7 +2374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2365,7 +2386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2377,7 +2398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2389,7 +2410,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2401,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2413,7 +2434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2425,7 +2446,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2437,7 +2458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2449,7 +2470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2461,7 +2482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2473,7 +2494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2485,7 +2506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2497,7 +2518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2509,7 +2530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2521,7 +2542,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2533,7 +2554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2545,7 +2566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2557,7 +2578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2569,7 +2590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2581,7 +2602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2593,7 +2614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2605,7 +2626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2617,7 +2638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2629,7 +2650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2641,7 +2662,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2653,7 +2674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2665,7 +2686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2677,7 +2698,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2689,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2701,7 +2722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2713,7 +2734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2725,7 +2746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2737,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2749,7 +2770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2761,7 +2782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2773,7 +2794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2785,7 +2806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2797,7 +2818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2809,7 +2830,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2821,7 +2842,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2833,7 +2854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2845,7 +2866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2857,7 +2878,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2869,7 +2890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2881,7 +2902,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2893,7 +2914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2905,7 +2926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2917,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2929,7 +2950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2941,7 +2962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2953,7 +2974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2965,7 +2986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2977,7 +2998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2989,7 +3010,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3001,7 +3022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -3013,7 +3034,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3025,7 +3046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3037,7 +3058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -3049,7 +3070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3061,7 +3082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -3073,7 +3094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -3085,7 +3106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -3097,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -3109,7 +3130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -3121,7 +3142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3133,7 +3154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3145,7 +3166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3157,7 +3178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3169,7 +3190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3181,7 +3202,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3193,7 +3214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3205,7 +3226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3217,745 +3238,991 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="C97" t="str">
+      <c r="B97" t="s">
+        <v>553</v>
+      </c>
+      <c r="C97">
         <f>_xlfn.XLOOKUP($B97,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="C98" t="str">
+      <c r="B98" t="s">
+        <v>551</v>
+      </c>
+      <c r="C98">
         <f>_xlfn.XLOOKUP($B98,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="C99" t="str">
+      <c r="B99" t="s">
+        <v>552</v>
+      </c>
+      <c r="C99">
         <f>_xlfn.XLOOKUP($B99,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="C100" t="str">
+      <c r="B100" t="s">
+        <v>553</v>
+      </c>
+      <c r="C100">
         <f>_xlfn.XLOOKUP($B100,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="C101" t="str">
+      <c r="B101" t="s">
+        <v>554</v>
+      </c>
+      <c r="C101">
         <f>_xlfn.XLOOKUP($B101,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="C102" t="str">
+      <c r="B102" t="s">
+        <v>551</v>
+      </c>
+      <c r="C102">
         <f>_xlfn.XLOOKUP($B102,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="C103" t="str">
+      <c r="B103" t="s">
+        <v>553</v>
+      </c>
+      <c r="C103">
         <f>_xlfn.XLOOKUP($B103,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="C104" t="str">
+      <c r="B104" t="s">
+        <v>551</v>
+      </c>
+      <c r="C104">
         <f>_xlfn.XLOOKUP($B104,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-      <c r="C105" t="str">
+      <c r="B105" t="s">
+        <v>553</v>
+      </c>
+      <c r="C105">
         <f>_xlfn.XLOOKUP($B105,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-      <c r="C106" t="str">
+      <c r="B106" t="s">
+        <v>554</v>
+      </c>
+      <c r="C106">
         <f>_xlfn.XLOOKUP($B106,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-      <c r="C107" t="str">
+      <c r="B107" t="s">
+        <v>552</v>
+      </c>
+      <c r="C107">
         <f>_xlfn.XLOOKUP($B107,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="C108" t="str">
+      <c r="B108" t="s">
+        <v>553</v>
+      </c>
+      <c r="C108">
         <f>_xlfn.XLOOKUP($B108,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="C109" t="str">
+      <c r="B109" t="s">
+        <v>551</v>
+      </c>
+      <c r="C109">
         <f>_xlfn.XLOOKUP($B109,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="C110" t="str">
+      <c r="B110" t="s">
+        <v>554</v>
+      </c>
+      <c r="C110">
         <f>_xlfn.XLOOKUP($B110,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="C111" t="str">
+      <c r="B111" t="s">
+        <v>553</v>
+      </c>
+      <c r="C111">
         <f>_xlfn.XLOOKUP($B111,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="C112" t="str">
+      <c r="B112" t="s">
+        <v>551</v>
+      </c>
+      <c r="C112">
         <f>_xlfn.XLOOKUP($B112,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="C113" t="str">
+      <c r="B113" t="s">
+        <v>551</v>
+      </c>
+      <c r="C113">
         <f>_xlfn.XLOOKUP($B113,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="C114" t="str">
+      <c r="B114" t="s">
+        <v>551</v>
+      </c>
+      <c r="C114">
         <f>_xlfn.XLOOKUP($B114,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-      <c r="C115" t="str">
+      <c r="B115" t="s">
+        <v>551</v>
+      </c>
+      <c r="C115">
         <f>_xlfn.XLOOKUP($B115,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="C116" t="str">
+      <c r="B116" t="s">
+        <v>551</v>
+      </c>
+      <c r="C116">
         <f>_xlfn.XLOOKUP($B116,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="C117" t="str">
+      <c r="B117" t="s">
+        <v>551</v>
+      </c>
+      <c r="C117">
         <f>_xlfn.XLOOKUP($B117,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="C118" t="str">
+      <c r="B118" t="s">
+        <v>553</v>
+      </c>
+      <c r="C118">
         <f>_xlfn.XLOOKUP($B118,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="C119" t="str">
+      <c r="B119" t="s">
+        <v>551</v>
+      </c>
+      <c r="C119">
         <f>_xlfn.XLOOKUP($B119,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="C120" t="str">
+      <c r="B120" t="s">
+        <v>551</v>
+      </c>
+      <c r="C120">
         <f>_xlfn.XLOOKUP($B120,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
-      <c r="C121" t="str">
+      <c r="B121" t="s">
+        <v>554</v>
+      </c>
+      <c r="C121">
         <f>_xlfn.XLOOKUP($B121,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
-      <c r="C122" t="str">
+      <c r="B122" t="s">
+        <v>554</v>
+      </c>
+      <c r="C122">
         <f>_xlfn.XLOOKUP($B122,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="C123" t="str">
+      <c r="B123" t="s">
+        <v>554</v>
+      </c>
+      <c r="C123">
         <f>_xlfn.XLOOKUP($B123,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="C124" t="str">
+      <c r="B124" t="s">
+        <v>553</v>
+      </c>
+      <c r="C124">
         <f>_xlfn.XLOOKUP($B124,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="C125" t="str">
+      <c r="B125" t="s">
+        <v>553</v>
+      </c>
+      <c r="C125">
         <f>_xlfn.XLOOKUP($B125,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
-      <c r="C126" t="str">
+      <c r="B126" t="s">
+        <v>554</v>
+      </c>
+      <c r="C126">
         <f>_xlfn.XLOOKUP($B126,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
-      <c r="C127" t="str">
+      <c r="B127" t="s">
+        <v>554</v>
+      </c>
+      <c r="C127">
         <f>_xlfn.XLOOKUP($B127,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
-      <c r="C128" t="str">
+      <c r="B128" t="s">
+        <v>553</v>
+      </c>
+      <c r="C128">
         <f>_xlfn.XLOOKUP($B128,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
-      <c r="C129" t="str">
+      <c r="B129" t="s">
+        <v>554</v>
+      </c>
+      <c r="C129">
         <f>_xlfn.XLOOKUP($B129,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
-      <c r="C130" t="str">
+      <c r="B130" t="s">
+        <v>554</v>
+      </c>
+      <c r="C130">
         <f>_xlfn.XLOOKUP($B130,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="C131" t="str">
+      <c r="B131" t="s">
+        <v>553</v>
+      </c>
+      <c r="C131">
         <f>_xlfn.XLOOKUP($B131,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
-      <c r="C132" t="str">
+      <c r="B132" t="s">
+        <v>553</v>
+      </c>
+      <c r="C132">
         <f>_xlfn.XLOOKUP($B132,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="C133" t="str">
+      <c r="B133" t="s">
+        <v>553</v>
+      </c>
+      <c r="C133">
         <f>_xlfn.XLOOKUP($B133,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
-      <c r="C134" t="str">
+      <c r="B134" t="s">
+        <v>551</v>
+      </c>
+      <c r="C134">
         <f>_xlfn.XLOOKUP($B134,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
-      <c r="C135" t="str">
+      <c r="B135" t="s">
+        <v>551</v>
+      </c>
+      <c r="C135">
         <f>_xlfn.XLOOKUP($B135,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
-      <c r="C136" t="str">
+      <c r="B136" t="s">
+        <v>551</v>
+      </c>
+      <c r="C136">
         <f>_xlfn.XLOOKUP($B136,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
-      <c r="C137" t="str">
+      <c r="B137" t="s">
+        <v>552</v>
+      </c>
+      <c r="C137">
         <f>_xlfn.XLOOKUP($B137,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
-      <c r="C138" t="str">
+      <c r="B138" t="s">
+        <v>551</v>
+      </c>
+      <c r="C138">
         <f>_xlfn.XLOOKUP($B138,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
-      <c r="C139" t="str">
+      <c r="B139" t="s">
+        <v>553</v>
+      </c>
+      <c r="C139">
         <f>_xlfn.XLOOKUP($B139,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
-      <c r="C140" t="str">
+      <c r="B140" t="s">
+        <v>553</v>
+      </c>
+      <c r="C140">
         <f>_xlfn.XLOOKUP($B140,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
-      <c r="C141" t="str">
+      <c r="B141" t="s">
+        <v>551</v>
+      </c>
+      <c r="C141">
         <f>_xlfn.XLOOKUP($B141,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
-      <c r="C142" t="str">
+      <c r="B142" t="s">
+        <v>551</v>
+      </c>
+      <c r="C142">
         <f>_xlfn.XLOOKUP($B142,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
-      <c r="C143" t="str">
+      <c r="B143" t="s">
+        <v>554</v>
+      </c>
+      <c r="C143">
         <f>_xlfn.XLOOKUP($B143,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
-      <c r="C144" t="str">
+      <c r="B144" t="s">
+        <v>553</v>
+      </c>
+      <c r="C144">
         <f>_xlfn.XLOOKUP($B144,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
-      <c r="C145" t="str">
+      <c r="B145" t="s">
+        <v>551</v>
+      </c>
+      <c r="C145">
         <f>_xlfn.XLOOKUP($B145,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
-      <c r="C146" t="str">
+      <c r="B146" t="s">
+        <v>553</v>
+      </c>
+      <c r="C146">
         <f>_xlfn.XLOOKUP($B146,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
-      <c r="C147" t="str">
+      <c r="B147" t="s">
+        <v>553</v>
+      </c>
+      <c r="C147">
         <f>_xlfn.XLOOKUP($B147,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
-      <c r="C148" t="str">
+      <c r="B148" t="s">
+        <v>554</v>
+      </c>
+      <c r="C148">
         <f>_xlfn.XLOOKUP($B148,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
-      <c r="C149" t="str">
+      <c r="B149" t="s">
+        <v>554</v>
+      </c>
+      <c r="C149">
         <f>_xlfn.XLOOKUP($B149,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
-      <c r="C150" t="str">
+      <c r="B150" t="s">
+        <v>551</v>
+      </c>
+      <c r="C150">
         <f>_xlfn.XLOOKUP($B150,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
-      <c r="C151" t="str">
+      <c r="B151" t="s">
+        <v>554</v>
+      </c>
+      <c r="C151">
         <f>_xlfn.XLOOKUP($B151,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>150</v>
       </c>
-      <c r="C152" t="str">
+      <c r="B152" t="s">
+        <v>554</v>
+      </c>
+      <c r="C152">
         <f>_xlfn.XLOOKUP($B152,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
-      <c r="C153" t="str">
+      <c r="B153" t="s">
+        <v>553</v>
+      </c>
+      <c r="C153">
         <f>_xlfn.XLOOKUP($B153,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>152</v>
       </c>
-      <c r="C154" t="str">
+      <c r="B154" t="s">
+        <v>553</v>
+      </c>
+      <c r="C154">
         <f>_xlfn.XLOOKUP($B154,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
-      <c r="C155" t="str">
+      <c r="B155" t="s">
+        <v>553</v>
+      </c>
+      <c r="C155">
         <f>_xlfn.XLOOKUP($B155,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
-      <c r="C156" t="str">
+      <c r="B156" t="s">
+        <v>553</v>
+      </c>
+      <c r="C156">
         <f>_xlfn.XLOOKUP($B156,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>155</v>
       </c>
-      <c r="C157" t="str">
+      <c r="B157" t="s">
+        <v>551</v>
+      </c>
+      <c r="C157">
         <f>_xlfn.XLOOKUP($B157,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>156</v>
       </c>
-      <c r="C158" t="str">
+      <c r="B158" t="s">
+        <v>551</v>
+      </c>
+      <c r="C158">
         <f>_xlfn.XLOOKUP($B158,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
-      <c r="C159" t="str">
+      <c r="B159" t="s">
+        <v>554</v>
+      </c>
+      <c r="C159">
         <f>_xlfn.XLOOKUP($B159,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
-      <c r="C160" t="str">
+      <c r="B160" t="s">
+        <v>553</v>
+      </c>
+      <c r="C160">
         <f>_xlfn.XLOOKUP($B160,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>159</v>
       </c>
-      <c r="C161" t="str">
+      <c r="B161" t="s">
+        <v>553</v>
+      </c>
+      <c r="C161">
         <f>_xlfn.XLOOKUP($B161,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
       </c>
-      <c r="C162" t="str">
+      <c r="B162" t="s">
+        <v>553</v>
+      </c>
+      <c r="C162">
         <f>_xlfn.XLOOKUP($B162,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>161</v>
       </c>
-      <c r="C163" t="str">
+      <c r="B163" t="s">
+        <v>553</v>
+      </c>
+      <c r="C163">
         <f>_xlfn.XLOOKUP($B163,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>162</v>
       </c>
-      <c r="C164" t="str">
+      <c r="B164" t="s">
+        <v>553</v>
+      </c>
+      <c r="C164">
         <f>_xlfn.XLOOKUP($B164,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
-      <c r="C165" t="str">
+      <c r="B165" t="s">
+        <v>553</v>
+      </c>
+      <c r="C165">
         <f>_xlfn.XLOOKUP($B165,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>164</v>
       </c>
-      <c r="C166" t="str">
+      <c r="B166" t="s">
+        <v>553</v>
+      </c>
+      <c r="C166">
         <f>_xlfn.XLOOKUP($B166,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
-      <c r="C167" t="str">
+      <c r="B167" t="s">
+        <v>553</v>
+      </c>
+      <c r="C167">
         <f>_xlfn.XLOOKUP($B167,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
-      <c r="C168" t="str">
+      <c r="B168" t="s">
+        <v>553</v>
+      </c>
+      <c r="C168">
         <f>_xlfn.XLOOKUP($B168,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
-      <c r="C169" t="str">
+      <c r="B169" t="s">
+        <v>553</v>
+      </c>
+      <c r="C169">
         <f>_xlfn.XLOOKUP($B169,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>168</v>
       </c>
-      <c r="C170" t="str">
+      <c r="B170" t="s">
+        <v>553</v>
+      </c>
+      <c r="C170">
         <f>_xlfn.XLOOKUP($B170,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>169</v>
       </c>
-      <c r="C171" t="str">
+      <c r="B171" t="s">
+        <v>552</v>
+      </c>
+      <c r="C171">
         <f>_xlfn.XLOOKUP($B171,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>170</v>
       </c>
-      <c r="C172" t="str">
+      <c r="B172" t="s">
+        <v>551</v>
+      </c>
+      <c r="C172">
         <f>_xlfn.XLOOKUP($B172,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>171</v>
       </c>
-      <c r="C173" t="str">
+      <c r="B173" t="s">
+        <v>553</v>
+      </c>
+      <c r="C173">
         <f>_xlfn.XLOOKUP($B173,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>172</v>
       </c>
-      <c r="C174" t="str">
+      <c r="B174" t="s">
+        <v>551</v>
+      </c>
+      <c r="C174">
         <f>_xlfn.XLOOKUP($B174,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>173</v>
       </c>
-      <c r="C175" t="str">
+      <c r="B175" t="s">
+        <v>551</v>
+      </c>
+      <c r="C175">
         <f>_xlfn.XLOOKUP($B175,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>174</v>
       </c>
-      <c r="C176" t="str">
+      <c r="B176" t="s">
+        <v>553</v>
+      </c>
+      <c r="C176">
         <f>_xlfn.XLOOKUP($B176,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
-      <c r="C177" t="str">
+      <c r="B177" t="s">
+        <v>553</v>
+      </c>
+      <c r="C177">
         <f>_xlfn.XLOOKUP($B177,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
-      <c r="C178" t="str">
+      <c r="B178" t="s">
+        <v>553</v>
+      </c>
+      <c r="C178">
         <f>_xlfn.XLOOKUP($B178,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -3964,7 +4231,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -3973,7 +4240,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -3982,7 +4249,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -3991,7 +4258,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -4000,7 +4267,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -4009,7 +4276,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -4018,7 +4285,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -4027,7 +4294,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -4036,7 +4303,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -4045,7 +4312,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -4054,7 +4321,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -4063,7 +4330,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -4072,7 +4339,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -4081,7 +4348,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -4090,7 +4357,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -4099,7 +4366,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -4108,7 +4375,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -4117,7 +4384,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -4126,7 +4393,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -4135,7 +4402,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -4144,7 +4411,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -4153,7 +4420,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -4162,7 +4429,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -4171,7 +4438,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -4180,7 +4447,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -4189,7 +4456,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -4198,7 +4465,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -4207,7 +4474,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -4216,7 +4483,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -4225,7 +4492,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -4234,7 +4501,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -4243,7 +4510,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -4252,7 +4519,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -4261,7 +4528,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -4270,7 +4537,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -4279,7 +4546,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -4288,7 +4555,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -4297,7 +4564,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -4306,7 +4573,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -4315,7 +4582,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -4324,7 +4591,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -4333,7 +4600,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -4342,7 +4609,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -4351,7 +4618,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -4360,7 +4627,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -4369,7 +4636,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -4378,7 +4645,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -4387,7 +4654,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -4396,7 +4663,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -4405,7 +4672,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -4414,7 +4681,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -4423,7 +4690,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -4432,7 +4699,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -4441,7 +4708,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -4450,7 +4717,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -4459,7 +4726,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -4468,7 +4735,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -4477,7 +4744,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -4486,7 +4753,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -4495,7 +4762,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -4504,7 +4771,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -4513,7 +4780,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -4522,7 +4789,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -4531,7 +4798,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -4540,7 +4807,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -4549,1510 +4816,2023 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>243</v>
       </c>
-      <c r="C245" t="str">
+      <c r="B245" t="s">
+        <v>552</v>
+      </c>
+      <c r="C245">
         <f>_xlfn.XLOOKUP($B245,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>244</v>
       </c>
-      <c r="C246" t="str">
+      <c r="B246" t="s">
+        <v>551</v>
+      </c>
+      <c r="C246">
         <f>_xlfn.XLOOKUP($B246,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>245</v>
       </c>
-      <c r="C247" t="str">
+      <c r="B247" t="s">
+        <v>551</v>
+      </c>
+      <c r="C247">
         <f>_xlfn.XLOOKUP($B247,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>246</v>
       </c>
-      <c r="C248" t="str">
+      <c r="B248" t="s">
+        <v>551</v>
+      </c>
+      <c r="C248">
         <f>_xlfn.XLOOKUP($B248,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>247</v>
       </c>
-      <c r="C249" t="str">
+      <c r="B249" t="s">
+        <v>551</v>
+      </c>
+      <c r="C249">
         <f>_xlfn.XLOOKUP($B249,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>248</v>
       </c>
-      <c r="C250" t="str">
+      <c r="B250" t="s">
+        <v>553</v>
+      </c>
+      <c r="C250">
         <f>_xlfn.XLOOKUP($B250,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>249</v>
       </c>
-      <c r="C251" t="str">
+      <c r="B251" t="s">
+        <v>553</v>
+      </c>
+      <c r="C251">
         <f>_xlfn.XLOOKUP($B251,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>250</v>
       </c>
-      <c r="C252" t="str">
+      <c r="B252" t="s">
+        <v>551</v>
+      </c>
+      <c r="C252">
         <f>_xlfn.XLOOKUP($B252,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>251</v>
       </c>
-      <c r="C253" t="str">
+      <c r="B253" t="s">
+        <v>551</v>
+      </c>
+      <c r="C253">
         <f>_xlfn.XLOOKUP($B253,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>252</v>
       </c>
-      <c r="C254" t="str">
+      <c r="B254" t="s">
+        <v>553</v>
+      </c>
+      <c r="C254">
         <f>_xlfn.XLOOKUP($B254,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>253</v>
       </c>
-      <c r="C255" t="str">
+      <c r="B255" t="s">
+        <v>553</v>
+      </c>
+      <c r="C255">
         <f>_xlfn.XLOOKUP($B255,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>254</v>
       </c>
-      <c r="C256" t="str">
+      <c r="B256" t="s">
+        <v>553</v>
+      </c>
+      <c r="C256">
         <f>_xlfn.XLOOKUP($B256,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>255</v>
       </c>
-      <c r="C257" t="str">
+      <c r="B257" t="s">
+        <v>553</v>
+      </c>
+      <c r="C257">
         <f>_xlfn.XLOOKUP($B257,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D257" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
-      <c r="C258" t="str">
+      <c r="B258" t="s">
+        <v>553</v>
+      </c>
+      <c r="C258">
         <f>_xlfn.XLOOKUP($B258,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>257</v>
       </c>
-      <c r="C259" t="str">
+      <c r="B259" t="s">
+        <v>554</v>
+      </c>
+      <c r="C259">
         <f>_xlfn.XLOOKUP($B259,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>258</v>
       </c>
-      <c r="C260" t="str">
+      <c r="B260" t="s">
+        <v>551</v>
+      </c>
+      <c r="C260">
         <f>_xlfn.XLOOKUP($B260,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>259</v>
       </c>
-      <c r="C261" t="str">
+      <c r="B261" t="s">
+        <v>553</v>
+      </c>
+      <c r="C261">
         <f>_xlfn.XLOOKUP($B261,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>260</v>
       </c>
-      <c r="C262" t="str">
+      <c r="B262" t="s">
+        <v>549</v>
+      </c>
+      <c r="C262">
         <f>_xlfn.XLOOKUP($B262,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>261</v>
       </c>
-      <c r="C263" t="str">
+      <c r="B263" t="s">
+        <v>549</v>
+      </c>
+      <c r="C263">
         <f>_xlfn.XLOOKUP($B263,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>262</v>
       </c>
-      <c r="C264" t="str">
+      <c r="B264" t="s">
+        <v>553</v>
+      </c>
+      <c r="C264">
         <f>_xlfn.XLOOKUP($B264,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>263</v>
       </c>
-      <c r="C265" t="str">
+      <c r="B265" t="s">
+        <v>551</v>
+      </c>
+      <c r="C265">
         <f>_xlfn.XLOOKUP($B265,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>264</v>
       </c>
-      <c r="C266" t="str">
+      <c r="B266" t="s">
+        <v>553</v>
+      </c>
+      <c r="C266">
         <f>_xlfn.XLOOKUP($B266,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>265</v>
       </c>
-      <c r="C267" t="str">
+      <c r="B267" t="s">
+        <v>553</v>
+      </c>
+      <c r="C267">
         <f>_xlfn.XLOOKUP($B267,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>266</v>
       </c>
-      <c r="C268" t="str">
+      <c r="B268" t="s">
+        <v>551</v>
+      </c>
+      <c r="C268">
         <f>_xlfn.XLOOKUP($B268,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D268" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>267</v>
       </c>
-      <c r="C269" t="str">
+      <c r="B269" t="s">
+        <v>551</v>
+      </c>
+      <c r="C269">
         <f>_xlfn.XLOOKUP($B269,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>268</v>
       </c>
-      <c r="C270" t="str">
+      <c r="B270" t="s">
+        <v>553</v>
+      </c>
+      <c r="C270">
         <f>_xlfn.XLOOKUP($B270,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>269</v>
       </c>
-      <c r="C271" t="str">
+      <c r="B271" t="s">
+        <v>549</v>
+      </c>
+      <c r="C271">
         <f>_xlfn.XLOOKUP($B271,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>270</v>
       </c>
-      <c r="C272" t="str">
+      <c r="B272" t="s">
+        <v>551</v>
+      </c>
+      <c r="C272">
         <f>_xlfn.XLOOKUP($B272,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>271</v>
       </c>
-      <c r="C273" t="str">
+      <c r="B273" t="s">
+        <v>551</v>
+      </c>
+      <c r="C273">
         <f>_xlfn.XLOOKUP($B273,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>272</v>
       </c>
-      <c r="C274" t="str">
+      <c r="B274" t="s">
+        <v>553</v>
+      </c>
+      <c r="C274">
         <f>_xlfn.XLOOKUP($B274,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>273</v>
       </c>
-      <c r="C275" t="str">
+      <c r="B275" t="s">
+        <v>552</v>
+      </c>
+      <c r="C275">
         <f>_xlfn.XLOOKUP($B275,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>274</v>
       </c>
-      <c r="C276" t="str">
+      <c r="B276" t="s">
+        <v>552</v>
+      </c>
+      <c r="C276">
         <f>_xlfn.XLOOKUP($B276,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>275</v>
       </c>
-      <c r="C277" t="str">
+      <c r="B277" t="s">
+        <v>552</v>
+      </c>
+      <c r="C277">
         <f>_xlfn.XLOOKUP($B277,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>276</v>
       </c>
-      <c r="C278" t="str">
+      <c r="B278" t="s">
+        <v>554</v>
+      </c>
+      <c r="C278">
         <f>_xlfn.XLOOKUP($B278,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>277</v>
       </c>
-      <c r="C279" t="str">
+      <c r="B279" t="s">
+        <v>554</v>
+      </c>
+      <c r="C279">
         <f>_xlfn.XLOOKUP($B279,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>278</v>
       </c>
-      <c r="C280" t="str">
+      <c r="B280" t="s">
+        <v>554</v>
+      </c>
+      <c r="C280">
         <f>_xlfn.XLOOKUP($B280,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>279</v>
       </c>
-      <c r="C281" t="str">
+      <c r="B281" t="s">
+        <v>553</v>
+      </c>
+      <c r="C281">
         <f>_xlfn.XLOOKUP($B281,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>280</v>
       </c>
-      <c r="C282" t="str">
+      <c r="B282" t="s">
+        <v>552</v>
+      </c>
+      <c r="C282">
         <f>_xlfn.XLOOKUP($B282,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D282" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>281</v>
       </c>
-      <c r="C283" t="str">
+      <c r="B283" t="s">
+        <v>551</v>
+      </c>
+      <c r="C283">
         <f>_xlfn.XLOOKUP($B283,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>282</v>
       </c>
-      <c r="C284" t="str">
+      <c r="B284" t="s">
+        <v>553</v>
+      </c>
+      <c r="C284">
         <f>_xlfn.XLOOKUP($B284,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>283</v>
       </c>
-      <c r="C285" t="str">
+      <c r="B285" t="s">
+        <v>553</v>
+      </c>
+      <c r="C285">
         <f>_xlfn.XLOOKUP($B285,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>284</v>
       </c>
-      <c r="C286" t="str">
+      <c r="B286" t="s">
+        <v>553</v>
+      </c>
+      <c r="C286">
         <f>_xlfn.XLOOKUP($B286,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>267</v>
       </c>
-      <c r="C287" t="str">
+      <c r="B287" t="s">
+        <v>551</v>
+      </c>
+      <c r="C287">
         <f>_xlfn.XLOOKUP($B287,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>285</v>
       </c>
-      <c r="C288" t="str">
+      <c r="B288" t="s">
+        <v>551</v>
+      </c>
+      <c r="C288">
         <f>_xlfn.XLOOKUP($B288,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>286</v>
       </c>
-      <c r="C289" t="str">
+      <c r="B289" t="s">
+        <v>551</v>
+      </c>
+      <c r="C289">
         <f>_xlfn.XLOOKUP($B289,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>287</v>
       </c>
-      <c r="C290" t="str">
+      <c r="B290" t="s">
+        <v>549</v>
+      </c>
+      <c r="C290">
         <f>_xlfn.XLOOKUP($B290,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>288</v>
       </c>
-      <c r="C291" t="str">
+      <c r="B291" t="s">
+        <v>553</v>
+      </c>
+      <c r="C291">
         <f>_xlfn.XLOOKUP($B291,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>289</v>
       </c>
-      <c r="C292" t="str">
+      <c r="B292" t="s">
+        <v>551</v>
+      </c>
+      <c r="C292">
         <f>_xlfn.XLOOKUP($B292,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>290</v>
       </c>
-      <c r="C293" t="str">
+      <c r="B293" t="s">
+        <v>553</v>
+      </c>
+      <c r="C293">
         <f>_xlfn.XLOOKUP($B293,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>291</v>
       </c>
-      <c r="C294" t="str">
+      <c r="B294" t="s">
+        <v>553</v>
+      </c>
+      <c r="C294">
         <f>_xlfn.XLOOKUP($B294,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>292</v>
       </c>
-      <c r="C295" t="str">
+      <c r="B295" t="s">
+        <v>552</v>
+      </c>
+      <c r="C295">
         <f>_xlfn.XLOOKUP($B295,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>293</v>
       </c>
-      <c r="C296" t="str">
+      <c r="B296" t="s">
+        <v>551</v>
+      </c>
+      <c r="C296">
         <f>_xlfn.XLOOKUP($B296,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>294</v>
       </c>
-      <c r="C297" t="str">
+      <c r="B297" t="s">
+        <v>554</v>
+      </c>
+      <c r="C297">
         <f>_xlfn.XLOOKUP($B297,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>295</v>
       </c>
-      <c r="C298" t="str">
+      <c r="B298" t="s">
+        <v>551</v>
+      </c>
+      <c r="C298">
         <f>_xlfn.XLOOKUP($B298,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>296</v>
       </c>
-      <c r="C299" t="str">
+      <c r="B299" t="s">
+        <v>553</v>
+      </c>
+      <c r="C299">
         <f>_xlfn.XLOOKUP($B299,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>297</v>
       </c>
-      <c r="C300" t="str">
+      <c r="B300" t="s">
+        <v>551</v>
+      </c>
+      <c r="C300">
         <f>_xlfn.XLOOKUP($B300,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>298</v>
       </c>
-      <c r="C301" t="str">
+      <c r="B301" t="s">
+        <v>552</v>
+      </c>
+      <c r="C301">
         <f>_xlfn.XLOOKUP($B301,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>299</v>
       </c>
-      <c r="C302" t="str">
+      <c r="B302" t="s">
+        <v>553</v>
+      </c>
+      <c r="C302">
         <f>_xlfn.XLOOKUP($B302,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>300</v>
       </c>
-      <c r="C303" t="str">
+      <c r="B303" t="s">
+        <v>553</v>
+      </c>
+      <c r="C303">
         <f>_xlfn.XLOOKUP($B303,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>301</v>
       </c>
-      <c r="C304" t="str">
+      <c r="B304" t="s">
+        <v>554</v>
+      </c>
+      <c r="C304">
         <f>_xlfn.XLOOKUP($B304,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>302</v>
       </c>
-      <c r="C305" t="str">
+      <c r="B305" t="s">
+        <v>553</v>
+      </c>
+      <c r="C305">
         <f>_xlfn.XLOOKUP($B305,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>303</v>
       </c>
-      <c r="C306" t="str">
+      <c r="B306" t="s">
+        <v>551</v>
+      </c>
+      <c r="C306">
         <f>_xlfn.XLOOKUP($B306,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>304</v>
       </c>
-      <c r="C307" t="str">
+      <c r="B307" t="s">
+        <v>550</v>
+      </c>
+      <c r="C307">
         <f>_xlfn.XLOOKUP($B307,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>305</v>
       </c>
-      <c r="C308" t="str">
+      <c r="B308" t="s">
+        <v>551</v>
+      </c>
+      <c r="C308">
         <f>_xlfn.XLOOKUP($B308,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>306</v>
       </c>
-      <c r="C309" t="str">
+      <c r="B309" t="s">
+        <v>551</v>
+      </c>
+      <c r="C309">
         <f>_xlfn.XLOOKUP($B309,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>307</v>
       </c>
-      <c r="C310" t="str">
+      <c r="B310" t="s">
+        <v>551</v>
+      </c>
+      <c r="C310">
         <f>_xlfn.XLOOKUP($B310,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>308</v>
       </c>
-      <c r="C311" t="str">
+      <c r="B311" t="s">
+        <v>551</v>
+      </c>
+      <c r="C311">
         <f>_xlfn.XLOOKUP($B311,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>309</v>
       </c>
-      <c r="C312" t="str">
+      <c r="B312" t="s">
+        <v>551</v>
+      </c>
+      <c r="C312">
         <f>_xlfn.XLOOKUP($B312,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>310</v>
       </c>
-      <c r="C313" t="str">
+      <c r="B313" t="s">
+        <v>551</v>
+      </c>
+      <c r="C313">
         <f>_xlfn.XLOOKUP($B313,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>311</v>
       </c>
-      <c r="C314" t="str">
+      <c r="B314" t="s">
+        <v>551</v>
+      </c>
+      <c r="C314">
         <f>_xlfn.XLOOKUP($B314,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>312</v>
       </c>
-      <c r="C315" t="str">
+      <c r="B315" t="s">
+        <v>551</v>
+      </c>
+      <c r="C315">
         <f>_xlfn.XLOOKUP($B315,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>313</v>
       </c>
-      <c r="C316" t="str">
+      <c r="B316" t="s">
+        <v>553</v>
+      </c>
+      <c r="C316">
         <f>_xlfn.XLOOKUP($B316,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>314</v>
       </c>
-      <c r="C317" t="str">
+      <c r="B317" t="s">
+        <v>553</v>
+      </c>
+      <c r="C317">
         <f>_xlfn.XLOOKUP($B317,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>315</v>
       </c>
-      <c r="C318" t="str">
+      <c r="B318" t="s">
+        <v>553</v>
+      </c>
+      <c r="C318">
         <f>_xlfn.XLOOKUP($B318,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>316</v>
       </c>
-      <c r="C319" t="str">
+      <c r="B319" t="s">
+        <v>552</v>
+      </c>
+      <c r="C319">
         <f>_xlfn.XLOOKUP($B319,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>317</v>
       </c>
-      <c r="C320" t="str">
+      <c r="B320" t="s">
+        <v>553</v>
+      </c>
+      <c r="C320">
         <f>_xlfn.XLOOKUP($B320,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>318</v>
       </c>
-      <c r="C321" t="str">
+      <c r="B321" t="s">
+        <v>553</v>
+      </c>
+      <c r="C321">
         <f>_xlfn.XLOOKUP($B321,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>319</v>
       </c>
-      <c r="C322" t="str">
+      <c r="B322" t="s">
+        <v>551</v>
+      </c>
+      <c r="C322">
         <f>_xlfn.XLOOKUP($B322,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>320</v>
       </c>
-      <c r="C323" t="str">
+      <c r="B323" t="s">
+        <v>551</v>
+      </c>
+      <c r="C323">
         <f>_xlfn.XLOOKUP($B323,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>321</v>
       </c>
-      <c r="C324" t="str">
+      <c r="B324" t="s">
+        <v>553</v>
+      </c>
+      <c r="C324">
         <f>_xlfn.XLOOKUP($B324,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>322</v>
       </c>
-      <c r="C325" t="str">
+      <c r="B325" t="s">
+        <v>553</v>
+      </c>
+      <c r="C325">
         <f>_xlfn.XLOOKUP($B325,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>323</v>
       </c>
-      <c r="C326" t="str">
+      <c r="B326" t="s">
+        <v>551</v>
+      </c>
+      <c r="C326">
         <f>_xlfn.XLOOKUP($B326,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D326" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>324</v>
       </c>
-      <c r="C327" t="str">
+      <c r="B327" t="s">
+        <v>553</v>
+      </c>
+      <c r="C327">
         <f>_xlfn.XLOOKUP($B327,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>325</v>
       </c>
-      <c r="C328" t="str">
+      <c r="B328" t="s">
+        <v>551</v>
+      </c>
+      <c r="C328">
         <f>_xlfn.XLOOKUP($B328,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>326</v>
       </c>
-      <c r="C329" t="str">
+      <c r="B329" t="s">
+        <v>552</v>
+      </c>
+      <c r="C329">
         <f>_xlfn.XLOOKUP($B329,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>327</v>
       </c>
-      <c r="C330" t="str">
+      <c r="B330" t="s">
+        <v>551</v>
+      </c>
+      <c r="C330">
         <f>_xlfn.XLOOKUP($B330,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>328</v>
       </c>
-      <c r="C331" t="str">
+      <c r="B331" t="s">
+        <v>553</v>
+      </c>
+      <c r="C331">
         <f>_xlfn.XLOOKUP($B331,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>329</v>
       </c>
-      <c r="C332" t="str">
+      <c r="B332" t="s">
+        <v>554</v>
+      </c>
+      <c r="C332">
         <f>_xlfn.XLOOKUP($B332,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>330</v>
       </c>
-      <c r="C333" t="str">
+      <c r="B333" t="s">
+        <v>553</v>
+      </c>
+      <c r="C333">
         <f>_xlfn.XLOOKUP($B333,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>331</v>
       </c>
-      <c r="C334" t="str">
+      <c r="B334" t="s">
+        <v>551</v>
+      </c>
+      <c r="C334">
         <f>_xlfn.XLOOKUP($B334,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>332</v>
       </c>
-      <c r="C335" t="str">
+      <c r="B335" t="s">
+        <v>551</v>
+      </c>
+      <c r="C335">
         <f>_xlfn.XLOOKUP($B335,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>333</v>
       </c>
-      <c r="C336" t="str">
+      <c r="B336" t="s">
+        <v>553</v>
+      </c>
+      <c r="C336">
         <f>_xlfn.XLOOKUP($B336,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>334</v>
       </c>
-      <c r="C337" t="str">
+      <c r="B337" t="s">
+        <v>553</v>
+      </c>
+      <c r="C337">
         <f>_xlfn.XLOOKUP($B337,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>335</v>
       </c>
-      <c r="C338" t="str">
+      <c r="B338" t="s">
+        <v>551</v>
+      </c>
+      <c r="C338">
         <f>_xlfn.XLOOKUP($B338,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>336</v>
       </c>
-      <c r="C339" t="str">
+      <c r="B339" t="s">
+        <v>551</v>
+      </c>
+      <c r="C339">
         <f>_xlfn.XLOOKUP($B339,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>337</v>
       </c>
-      <c r="C340" t="str">
+      <c r="B340" t="s">
+        <v>554</v>
+      </c>
+      <c r="C340">
         <f>_xlfn.XLOOKUP($B340,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>338</v>
       </c>
-      <c r="C341" t="str">
+      <c r="B341" t="s">
+        <v>553</v>
+      </c>
+      <c r="C341">
         <f>_xlfn.XLOOKUP($B341,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>339</v>
       </c>
-      <c r="C342" t="str">
+      <c r="B342" t="s">
+        <v>551</v>
+      </c>
+      <c r="C342">
         <f>_xlfn.XLOOKUP($B342,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>340</v>
       </c>
-      <c r="C343" t="str">
+      <c r="B343" t="s">
+        <v>551</v>
+      </c>
+      <c r="C343">
         <f>_xlfn.XLOOKUP($B343,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>341</v>
       </c>
-      <c r="C344" t="str">
+      <c r="B344" t="s">
+        <v>551</v>
+      </c>
+      <c r="C344">
         <f>_xlfn.XLOOKUP($B344,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>342</v>
       </c>
-      <c r="C345" t="str">
+      <c r="B345" t="s">
+        <v>551</v>
+      </c>
+      <c r="C345">
         <f>_xlfn.XLOOKUP($B345,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>343</v>
       </c>
-      <c r="C346" t="str">
+      <c r="B346" t="s">
+        <v>551</v>
+      </c>
+      <c r="C346">
         <f>_xlfn.XLOOKUP($B346,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>344</v>
       </c>
-      <c r="C347" t="str">
+      <c r="B347" t="s">
+        <v>551</v>
+      </c>
+      <c r="C347">
         <f>_xlfn.XLOOKUP($B347,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>345</v>
       </c>
-      <c r="C348" t="str">
+      <c r="B348" t="s">
+        <v>553</v>
+      </c>
+      <c r="C348">
         <f>_xlfn.XLOOKUP($B348,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>346</v>
       </c>
-      <c r="C349" t="str">
+      <c r="B349" t="s">
+        <v>552</v>
+      </c>
+      <c r="C349">
         <f>_xlfn.XLOOKUP($B349,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>347</v>
       </c>
-      <c r="C350" t="str">
+      <c r="B350" t="s">
+        <v>553</v>
+      </c>
+      <c r="C350">
         <f>_xlfn.XLOOKUP($B350,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>348</v>
       </c>
-      <c r="C351" t="str">
+      <c r="B351" t="s">
+        <v>553</v>
+      </c>
+      <c r="C351">
         <f>_xlfn.XLOOKUP($B351,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>349</v>
       </c>
-      <c r="C352" t="str">
+      <c r="B352" t="s">
+        <v>551</v>
+      </c>
+      <c r="C352">
         <f>_xlfn.XLOOKUP($B352,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>350</v>
       </c>
-      <c r="C353" t="str">
+      <c r="B353" t="s">
+        <v>553</v>
+      </c>
+      <c r="C353">
         <f>_xlfn.XLOOKUP($B353,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>351</v>
       </c>
-      <c r="C354" t="str">
+      <c r="B354" t="s">
+        <v>553</v>
+      </c>
+      <c r="C354">
         <f>_xlfn.XLOOKUP($B354,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>352</v>
       </c>
-      <c r="C355" t="str">
+      <c r="B355" t="s">
+        <v>553</v>
+      </c>
+      <c r="C355">
         <f>_xlfn.XLOOKUP($B355,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>353</v>
       </c>
-      <c r="C356" t="str">
+      <c r="B356" t="s">
+        <v>553</v>
+      </c>
+      <c r="C356">
         <f>_xlfn.XLOOKUP($B356,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>354</v>
       </c>
-      <c r="C357" t="str">
+      <c r="B357" t="s">
+        <v>553</v>
+      </c>
+      <c r="C357">
         <f>_xlfn.XLOOKUP($B357,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>355</v>
       </c>
-      <c r="C358" t="str">
+      <c r="B358" t="s">
+        <v>553</v>
+      </c>
+      <c r="C358">
         <f>_xlfn.XLOOKUP($B358,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>356</v>
       </c>
-      <c r="C359" t="str">
+      <c r="B359" t="s">
+        <v>553</v>
+      </c>
+      <c r="C359">
         <f>_xlfn.XLOOKUP($B359,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>357</v>
       </c>
-      <c r="C360" t="str">
+      <c r="B360" t="s">
+        <v>551</v>
+      </c>
+      <c r="C360">
         <f>_xlfn.XLOOKUP($B360,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>358</v>
       </c>
-      <c r="C361" t="str">
+      <c r="B361" t="s">
+        <v>553</v>
+      </c>
+      <c r="C361">
         <f>_xlfn.XLOOKUP($B361,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>359</v>
       </c>
-      <c r="C362" t="str">
+      <c r="B362" t="s">
+        <v>551</v>
+      </c>
+      <c r="C362">
         <f>_xlfn.XLOOKUP($B362,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>360</v>
       </c>
-      <c r="C363" t="str">
+      <c r="B363" t="s">
+        <v>551</v>
+      </c>
+      <c r="C363">
         <f>_xlfn.XLOOKUP($B363,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>361</v>
       </c>
-      <c r="C364" t="str">
+      <c r="B364" t="s">
+        <v>551</v>
+      </c>
+      <c r="C364">
         <f>_xlfn.XLOOKUP($B364,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>362</v>
       </c>
-      <c r="C365" t="str">
+      <c r="B365" t="s">
+        <v>551</v>
+      </c>
+      <c r="C365">
         <f>_xlfn.XLOOKUP($B365,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>363</v>
       </c>
-      <c r="C366" t="str">
+      <c r="B366" t="s">
+        <v>553</v>
+      </c>
+      <c r="C366">
         <f>_xlfn.XLOOKUP($B366,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>364</v>
       </c>
-      <c r="C367" t="str">
+      <c r="B367" t="s">
+        <v>551</v>
+      </c>
+      <c r="C367">
         <f>_xlfn.XLOOKUP($B367,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>365</v>
       </c>
-      <c r="C368" t="str">
+      <c r="B368" t="s">
+        <v>551</v>
+      </c>
+      <c r="C368">
         <f>_xlfn.XLOOKUP($B368,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>366</v>
       </c>
-      <c r="C369" t="str">
+      <c r="B369" t="s">
+        <v>552</v>
+      </c>
+      <c r="C369">
         <f>_xlfn.XLOOKUP($B369,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>367</v>
       </c>
-      <c r="C370" t="str">
+      <c r="B370" t="s">
+        <v>551</v>
+      </c>
+      <c r="C370">
         <f>_xlfn.XLOOKUP($B370,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>368</v>
       </c>
-      <c r="C371" t="str">
+      <c r="B371" t="s">
+        <v>553</v>
+      </c>
+      <c r="C371">
         <f>_xlfn.XLOOKUP($B371,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>369</v>
       </c>
-      <c r="C372" t="str">
+      <c r="B372" t="s">
+        <v>554</v>
+      </c>
+      <c r="C372">
         <f>_xlfn.XLOOKUP($B372,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>370</v>
       </c>
-      <c r="C373" t="str">
+      <c r="B373" t="s">
+        <v>551</v>
+      </c>
+      <c r="C373">
         <f>_xlfn.XLOOKUP($B373,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>371</v>
       </c>
-      <c r="C374" t="str">
+      <c r="B374" t="s">
+        <v>553</v>
+      </c>
+      <c r="C374">
         <f>_xlfn.XLOOKUP($B374,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>372</v>
       </c>
-      <c r="C375" t="str">
+      <c r="B375" t="s">
+        <v>553</v>
+      </c>
+      <c r="C375">
         <f>_xlfn.XLOOKUP($B375,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>373</v>
       </c>
-      <c r="C376" t="str">
+      <c r="B376" t="s">
+        <v>551</v>
+      </c>
+      <c r="C376">
         <f>_xlfn.XLOOKUP($B376,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>374</v>
       </c>
-      <c r="C377" t="str">
+      <c r="B377" t="s">
+        <v>551</v>
+      </c>
+      <c r="C377">
         <f>_xlfn.XLOOKUP($B377,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>375</v>
       </c>
-      <c r="C378" t="str">
+      <c r="B378" t="s">
+        <v>551</v>
+      </c>
+      <c r="C378">
         <f>_xlfn.XLOOKUP($B378,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>376</v>
       </c>
-      <c r="C379" t="str">
+      <c r="B379" t="s">
+        <v>551</v>
+      </c>
+      <c r="C379">
         <f>_xlfn.XLOOKUP($B379,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>377</v>
       </c>
-      <c r="C380" t="str">
+      <c r="B380" t="s">
+        <v>551</v>
+      </c>
+      <c r="C380">
         <f>_xlfn.XLOOKUP($B380,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>378</v>
       </c>
-      <c r="C381" t="str">
+      <c r="B381" t="s">
+        <v>551</v>
+      </c>
+      <c r="C381">
         <f>_xlfn.XLOOKUP($B381,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>379</v>
       </c>
-      <c r="C382" t="str">
+      <c r="B382" t="s">
+        <v>551</v>
+      </c>
+      <c r="C382">
         <f>_xlfn.XLOOKUP($B382,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>380</v>
       </c>
-      <c r="C383" t="str">
+      <c r="B383" t="s">
+        <v>553</v>
+      </c>
+      <c r="C383">
         <f>_xlfn.XLOOKUP($B383,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>381</v>
       </c>
-      <c r="C384" t="str">
+      <c r="B384" t="s">
+        <v>554</v>
+      </c>
+      <c r="C384">
         <f>_xlfn.XLOOKUP($B384,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>382</v>
       </c>
-      <c r="C385" t="str">
+      <c r="B385" t="s">
+        <v>551</v>
+      </c>
+      <c r="C385">
         <f>_xlfn.XLOOKUP($B385,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>383</v>
       </c>
-      <c r="C386" t="str">
+      <c r="B386" t="s">
+        <v>551</v>
+      </c>
+      <c r="C386">
         <f>_xlfn.XLOOKUP($B386,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>384</v>
       </c>
-      <c r="C387" t="str">
+      <c r="B387" t="s">
+        <v>551</v>
+      </c>
+      <c r="C387">
         <f>_xlfn.XLOOKUP($B387,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>385</v>
       </c>
-      <c r="C388" t="str">
+      <c r="B388" t="s">
+        <v>551</v>
+      </c>
+      <c r="C388">
         <f>_xlfn.XLOOKUP($B388,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>386</v>
       </c>
-      <c r="C389" t="str">
+      <c r="B389" t="s">
+        <v>551</v>
+      </c>
+      <c r="C389">
         <f>_xlfn.XLOOKUP($B389,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>387</v>
       </c>
-      <c r="C390" t="str">
+      <c r="B390" t="s">
+        <v>552</v>
+      </c>
+      <c r="C390">
         <f>_xlfn.XLOOKUP($B390,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>388</v>
       </c>
-      <c r="C391" t="str">
+      <c r="B391" t="s">
+        <v>554</v>
+      </c>
+      <c r="C391">
         <f>_xlfn.XLOOKUP($B391,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>389</v>
       </c>
-      <c r="C392" t="str">
+      <c r="B392" t="s">
+        <v>551</v>
+      </c>
+      <c r="C392">
         <f>_xlfn.XLOOKUP($B392,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>390</v>
       </c>
-      <c r="C393" t="str">
+      <c r="B393" t="s">
+        <v>551</v>
+      </c>
+      <c r="C393">
         <f>_xlfn.XLOOKUP($B393,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>391</v>
       </c>
-      <c r="C394" t="str">
+      <c r="B394" t="s">
+        <v>553</v>
+      </c>
+      <c r="C394">
         <f>_xlfn.XLOOKUP($B394,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>392</v>
       </c>
-      <c r="C395" t="str">
+      <c r="B395" t="s">
+        <v>554</v>
+      </c>
+      <c r="C395">
         <f>_xlfn.XLOOKUP($B395,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>393</v>
       </c>
-      <c r="C396" t="str">
+      <c r="B396" t="s">
+        <v>551</v>
+      </c>
+      <c r="C396">
         <f>_xlfn.XLOOKUP($B396,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>394</v>
       </c>
-      <c r="C397" t="str">
+      <c r="B397" t="s">
+        <v>551</v>
+      </c>
+      <c r="C397">
         <f>_xlfn.XLOOKUP($B397,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>395</v>
       </c>
-      <c r="C398" t="str">
+      <c r="B398" t="s">
+        <v>551</v>
+      </c>
+      <c r="C398">
         <f>_xlfn.XLOOKUP($B398,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>396</v>
       </c>
-      <c r="C399" t="str">
+      <c r="B399" t="s">
+        <v>554</v>
+      </c>
+      <c r="C399">
         <f>_xlfn.XLOOKUP($B399,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>397</v>
       </c>
-      <c r="C400" t="str">
+      <c r="B400" t="s">
+        <v>554</v>
+      </c>
+      <c r="C400">
         <f>_xlfn.XLOOKUP($B400,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>398</v>
       </c>
-      <c r="C401" t="str">
+      <c r="B401" t="s">
+        <v>551</v>
+      </c>
+      <c r="C401">
         <f>_xlfn.XLOOKUP($B401,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>399</v>
       </c>
-      <c r="C402" t="str">
+      <c r="B402" t="s">
+        <v>551</v>
+      </c>
+      <c r="C402">
         <f>_xlfn.XLOOKUP($B402,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>400</v>
       </c>
-      <c r="C403" t="str">
+      <c r="B403" t="s">
+        <v>554</v>
+      </c>
+      <c r="C403">
         <f>_xlfn.XLOOKUP($B403,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>401</v>
       </c>
-      <c r="C404" t="str">
+      <c r="B404" t="s">
+        <v>552</v>
+      </c>
+      <c r="C404">
         <f>_xlfn.XLOOKUP($B404,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>402</v>
       </c>
-      <c r="C405" t="str">
+      <c r="B405" t="s">
+        <v>552</v>
+      </c>
+      <c r="C405">
         <f>_xlfn.XLOOKUP($B405,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>403</v>
       </c>
-      <c r="C406" t="str">
+      <c r="B406" t="s">
+        <v>552</v>
+      </c>
+      <c r="C406">
         <f>_xlfn.XLOOKUP($B406,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>404</v>
       </c>
-      <c r="C407" t="str">
+      <c r="B407" t="s">
+        <v>552</v>
+      </c>
+      <c r="C407">
         <f>_xlfn.XLOOKUP($B407,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>405</v>
       </c>
-      <c r="C408" t="str">
+      <c r="B408" t="s">
+        <v>552</v>
+      </c>
+      <c r="C408">
         <f>_xlfn.XLOOKUP($B408,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>406</v>
       </c>
-      <c r="C409" t="str">
+      <c r="B409" t="s">
+        <v>552</v>
+      </c>
+      <c r="C409">
         <f>_xlfn.XLOOKUP($B409,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>407</v>
       </c>
-      <c r="C410" t="str">
+      <c r="B410" t="s">
+        <v>549</v>
+      </c>
+      <c r="C410">
         <f>_xlfn.XLOOKUP($B410,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>408</v>
       </c>
-      <c r="C411" t="str">
+      <c r="B411" t="s">
+        <v>551</v>
+      </c>
+      <c r="C411">
         <f>_xlfn.XLOOKUP($B411,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>409</v>
       </c>
@@ -6061,7 +6841,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>410</v>
       </c>
@@ -6070,7 +6850,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>411</v>
       </c>
@@ -6079,7 +6859,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>412</v>
       </c>
@@ -6088,7 +6868,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>413</v>
       </c>
@@ -6097,7 +6877,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>414</v>
       </c>
@@ -6106,7 +6886,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>415</v>
       </c>
@@ -6115,7 +6895,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>416</v>
       </c>
@@ -6124,7 +6904,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>417</v>
       </c>
@@ -6133,7 +6913,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>418</v>
       </c>
@@ -6142,7 +6922,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>419</v>
       </c>
@@ -6151,7 +6931,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>420</v>
       </c>
@@ -6160,7 +6940,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>421</v>
       </c>
@@ -6169,7 +6949,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>422</v>
       </c>
@@ -6178,7 +6958,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>423</v>
       </c>
@@ -6187,7 +6967,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>424</v>
       </c>
@@ -6196,7 +6976,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>425</v>
       </c>
@@ -6205,7 +6985,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>426</v>
       </c>
@@ -6214,7 +6994,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>427</v>
       </c>
@@ -6223,7 +7003,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>428</v>
       </c>
@@ -6232,7 +7012,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>429</v>
       </c>
@@ -6241,7 +7021,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>430</v>
       </c>
@@ -6250,7 +7030,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>431</v>
       </c>
@@ -6259,7 +7039,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>432</v>
       </c>
@@ -6268,7 +7048,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>433</v>
       </c>
@@ -6277,7 +7057,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>434</v>
       </c>
@@ -6286,7 +7066,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>435</v>
       </c>
@@ -6295,7 +7075,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>436</v>
       </c>
@@ -6304,7 +7084,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>437</v>
       </c>
@@ -6313,7 +7093,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>438</v>
       </c>
@@ -6322,7 +7102,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>439</v>
       </c>
@@ -6331,7 +7111,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>440</v>
       </c>
@@ -6340,7 +7120,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>441</v>
       </c>
@@ -6349,7 +7129,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>442</v>
       </c>
@@ -6358,7 +7138,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>443</v>
       </c>
@@ -6367,7 +7147,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>444</v>
       </c>
@@ -6376,7 +7156,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>445</v>
       </c>
@@ -6385,7 +7165,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>446</v>
       </c>
@@ -6394,7 +7174,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>447</v>
       </c>
@@ -6403,7 +7183,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>448</v>
       </c>
@@ -6412,7 +7192,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>449</v>
       </c>
@@ -6421,7 +7201,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>450</v>
       </c>
@@ -6430,7 +7210,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>451</v>
       </c>
@@ -6439,592 +7219,787 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>452</v>
       </c>
-      <c r="C455" t="str">
+      <c r="B455" t="s">
+        <v>551</v>
+      </c>
+      <c r="C455">
         <f>_xlfn.XLOOKUP($B455,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>453</v>
       </c>
-      <c r="C456" t="str">
+      <c r="B456" t="s">
+        <v>552</v>
+      </c>
+      <c r="C456">
         <f>_xlfn.XLOOKUP($B456,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>454</v>
       </c>
-      <c r="C457" t="str">
+      <c r="B457" t="s">
+        <v>551</v>
+      </c>
+      <c r="C457">
         <f>_xlfn.XLOOKUP($B457,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>455</v>
       </c>
-      <c r="C458" t="str">
+      <c r="B458" t="s">
+        <v>553</v>
+      </c>
+      <c r="C458">
         <f>_xlfn.XLOOKUP($B458,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>456</v>
       </c>
-      <c r="C459" t="str">
+      <c r="B459" t="s">
+        <v>553</v>
+      </c>
+      <c r="C459">
         <f>_xlfn.XLOOKUP($B459,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>457</v>
       </c>
-      <c r="C460" t="str">
+      <c r="B460" t="s">
+        <v>551</v>
+      </c>
+      <c r="C460">
         <f>_xlfn.XLOOKUP($B460,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>458</v>
       </c>
-      <c r="C461" t="str">
+      <c r="B461" t="s">
+        <v>551</v>
+      </c>
+      <c r="C461">
         <f>_xlfn.XLOOKUP($B461,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>459</v>
       </c>
-      <c r="C462" t="str">
+      <c r="B462" t="s">
+        <v>551</v>
+      </c>
+      <c r="C462">
         <f>_xlfn.XLOOKUP($B462,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>460</v>
       </c>
-      <c r="C463" t="str">
+      <c r="B463" t="s">
+        <v>551</v>
+      </c>
+      <c r="C463">
         <f>_xlfn.XLOOKUP($B463,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>461</v>
       </c>
-      <c r="C464" t="str">
+      <c r="B464" t="s">
+        <v>553</v>
+      </c>
+      <c r="C464">
         <f>_xlfn.XLOOKUP($B464,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>462</v>
       </c>
-      <c r="C465" t="str">
+      <c r="B465" t="s">
+        <v>551</v>
+      </c>
+      <c r="C465">
         <f>_xlfn.XLOOKUP($B465,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>463</v>
       </c>
-      <c r="C466" t="str">
+      <c r="B466" t="s">
+        <v>553</v>
+      </c>
+      <c r="C466">
         <f>_xlfn.XLOOKUP($B466,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>464</v>
       </c>
-      <c r="C467" t="str">
+      <c r="B467" t="s">
+        <v>553</v>
+      </c>
+      <c r="C467">
         <f>_xlfn.XLOOKUP($B467,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>465</v>
       </c>
-      <c r="C468" t="str">
+      <c r="B468" t="s">
+        <v>552</v>
+      </c>
+      <c r="C468">
         <f>_xlfn.XLOOKUP($B468,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>466</v>
       </c>
-      <c r="C469" t="str">
+      <c r="B469" t="s">
+        <v>553</v>
+      </c>
+      <c r="C469">
         <f>_xlfn.XLOOKUP($B469,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>467</v>
       </c>
-      <c r="C470" t="str">
+      <c r="B470" t="s">
+        <v>551</v>
+      </c>
+      <c r="C470">
         <f>_xlfn.XLOOKUP($B470,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>468</v>
       </c>
-      <c r="C471" t="str">
+      <c r="B471" t="s">
+        <v>552</v>
+      </c>
+      <c r="C471">
         <f>_xlfn.XLOOKUP($B471,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>469</v>
       </c>
-      <c r="C472" t="str">
+      <c r="B472" t="s">
+        <v>553</v>
+      </c>
+      <c r="C472">
         <f>_xlfn.XLOOKUP($B472,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>470</v>
       </c>
-      <c r="C473" t="str">
+      <c r="B473" t="s">
+        <v>554</v>
+      </c>
+      <c r="C473">
         <f>_xlfn.XLOOKUP($B473,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>471</v>
       </c>
-      <c r="C474" t="str">
+      <c r="B474" t="s">
+        <v>553</v>
+      </c>
+      <c r="C474">
         <f>_xlfn.XLOOKUP($B474,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>472</v>
       </c>
-      <c r="C475" t="str">
+      <c r="B475" t="s">
+        <v>554</v>
+      </c>
+      <c r="C475">
         <f>_xlfn.XLOOKUP($B475,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>473</v>
       </c>
-      <c r="C476" t="str">
+      <c r="B476" t="s">
+        <v>554</v>
+      </c>
+      <c r="C476">
         <f>_xlfn.XLOOKUP($B476,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>474</v>
       </c>
-      <c r="C477" t="str">
+      <c r="B477" t="s">
+        <v>553</v>
+      </c>
+      <c r="C477">
         <f>_xlfn.XLOOKUP($B477,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>475</v>
       </c>
-      <c r="C478" t="str">
+      <c r="B478" t="s">
+        <v>553</v>
+      </c>
+      <c r="C478">
         <f>_xlfn.XLOOKUP($B478,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>476</v>
       </c>
-      <c r="C479" t="str">
+      <c r="B479" t="s">
+        <v>553</v>
+      </c>
+      <c r="C479">
         <f>_xlfn.XLOOKUP($B479,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>477</v>
       </c>
-      <c r="C480" t="str">
+      <c r="B480" t="s">
+        <v>552</v>
+      </c>
+      <c r="C480">
         <f>_xlfn.XLOOKUP($B480,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>478</v>
       </c>
-      <c r="C481" t="str">
+      <c r="B481" t="s">
+        <v>551</v>
+      </c>
+      <c r="C481">
         <f>_xlfn.XLOOKUP($B481,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>479</v>
       </c>
-      <c r="C482" t="str">
+      <c r="B482" t="s">
+        <v>550</v>
+      </c>
+      <c r="C482">
         <f>_xlfn.XLOOKUP($B482,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>480</v>
       </c>
-      <c r="C483" t="str">
+      <c r="B483" t="s">
+        <v>552</v>
+      </c>
+      <c r="C483">
         <f>_xlfn.XLOOKUP($B483,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>481</v>
       </c>
-      <c r="C484" t="str">
+      <c r="B484" t="s">
+        <v>554</v>
+      </c>
+      <c r="C484">
         <f>_xlfn.XLOOKUP($B484,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>482</v>
       </c>
-      <c r="C485" t="str">
+      <c r="B485" t="s">
+        <v>551</v>
+      </c>
+      <c r="C485">
         <f>_xlfn.XLOOKUP($B485,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>483</v>
       </c>
-      <c r="C486" t="str">
+      <c r="B486" t="s">
+        <v>554</v>
+      </c>
+      <c r="C486">
         <f>_xlfn.XLOOKUP($B486,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>484</v>
       </c>
-      <c r="C487" t="str">
+      <c r="B487" t="s">
+        <v>553</v>
+      </c>
+      <c r="C487">
         <f>_xlfn.XLOOKUP($B487,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>485</v>
       </c>
-      <c r="C488" t="str">
+      <c r="B488" t="s">
+        <v>554</v>
+      </c>
+      <c r="C488">
         <f>_xlfn.XLOOKUP($B488,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>486</v>
       </c>
-      <c r="C489" t="str">
+      <c r="B489" t="s">
+        <v>553</v>
+      </c>
+      <c r="C489">
         <f>_xlfn.XLOOKUP($B489,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>487</v>
       </c>
-      <c r="C490" t="str">
+      <c r="B490" t="s">
+        <v>553</v>
+      </c>
+      <c r="C490">
         <f>_xlfn.XLOOKUP($B490,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>488</v>
       </c>
-      <c r="C491" t="str">
+      <c r="B491" t="s">
+        <v>553</v>
+      </c>
+      <c r="C491">
         <f>_xlfn.XLOOKUP($B491,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>489</v>
       </c>
-      <c r="C492" t="str">
+      <c r="B492" t="s">
+        <v>551</v>
+      </c>
+      <c r="C492">
         <f>_xlfn.XLOOKUP($B492,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>490</v>
       </c>
-      <c r="C493" t="str">
+      <c r="B493" t="s">
+        <v>554</v>
+      </c>
+      <c r="C493">
         <f>_xlfn.XLOOKUP($B493,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>491</v>
       </c>
-      <c r="C494" t="str">
+      <c r="B494" t="s">
+        <v>551</v>
+      </c>
+      <c r="C494">
         <f>_xlfn.XLOOKUP($B494,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>492</v>
       </c>
-      <c r="C495" t="str">
+      <c r="B495" t="s">
+        <v>553</v>
+      </c>
+      <c r="C495">
         <f>_xlfn.XLOOKUP($B495,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>493</v>
       </c>
-      <c r="C496" t="str">
+      <c r="B496" t="s">
+        <v>554</v>
+      </c>
+      <c r="C496">
         <f>_xlfn.XLOOKUP($B496,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>494</v>
       </c>
-      <c r="C497" t="str">
+      <c r="B497" t="s">
+        <v>551</v>
+      </c>
+      <c r="C497">
         <f>_xlfn.XLOOKUP($B497,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>495</v>
       </c>
-      <c r="C498" t="str">
+      <c r="B498" t="s">
+        <v>551</v>
+      </c>
+      <c r="C498">
         <f>_xlfn.XLOOKUP($B498,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>496</v>
       </c>
-      <c r="C499" t="str">
+      <c r="B499" t="s">
+        <v>553</v>
+      </c>
+      <c r="C499">
         <f>_xlfn.XLOOKUP($B499,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>497</v>
       </c>
-      <c r="C500" t="str">
+      <c r="B500" t="s">
+        <v>553</v>
+      </c>
+      <c r="C500">
         <f>_xlfn.XLOOKUP($B500,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>498</v>
       </c>
-      <c r="C501" t="str">
+      <c r="B501" t="s">
+        <v>552</v>
+      </c>
+      <c r="C501">
         <f>_xlfn.XLOOKUP($B501,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>499</v>
       </c>
-      <c r="C502" t="str">
+      <c r="B502" t="s">
+        <v>553</v>
+      </c>
+      <c r="C502">
         <f>_xlfn.XLOOKUP($B502,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>500</v>
       </c>
-      <c r="C503" t="str">
+      <c r="B503" t="s">
+        <v>551</v>
+      </c>
+      <c r="C503">
         <f>_xlfn.XLOOKUP($B503,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>501</v>
       </c>
-      <c r="C504" t="str">
+      <c r="B504" t="s">
+        <v>552</v>
+      </c>
+      <c r="C504">
         <f>_xlfn.XLOOKUP($B504,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>502</v>
       </c>
-      <c r="C505" t="str">
+      <c r="B505" t="s">
+        <v>553</v>
+      </c>
+      <c r="C505">
         <f>_xlfn.XLOOKUP($B505,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>503</v>
       </c>
-      <c r="C506" t="str">
+      <c r="B506" t="s">
+        <v>553</v>
+      </c>
+      <c r="C506">
         <f>_xlfn.XLOOKUP($B506,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>504</v>
       </c>
-      <c r="C507" t="str">
+      <c r="B507" t="s">
+        <v>554</v>
+      </c>
+      <c r="C507">
         <f>_xlfn.XLOOKUP($B507,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>505</v>
       </c>
-      <c r="C508" t="str">
+      <c r="B508" t="s">
+        <v>553</v>
+      </c>
+      <c r="C508">
         <f>_xlfn.XLOOKUP($B508,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>506</v>
       </c>
-      <c r="C509" t="str">
+      <c r="B509" t="s">
+        <v>553</v>
+      </c>
+      <c r="C509">
         <f>_xlfn.XLOOKUP($B509,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>507</v>
       </c>
-      <c r="C510" t="str">
+      <c r="B510" t="s">
+        <v>552</v>
+      </c>
+      <c r="C510">
         <f>_xlfn.XLOOKUP($B510,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>508</v>
       </c>
-      <c r="C511" t="str">
+      <c r="B511" t="s">
+        <v>551</v>
+      </c>
+      <c r="C511">
         <f>_xlfn.XLOOKUP($B511,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>509</v>
       </c>
-      <c r="C512" t="str">
+      <c r="B512" t="s">
+        <v>552</v>
+      </c>
+      <c r="C512">
         <f>_xlfn.XLOOKUP($B512,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>510</v>
       </c>
-      <c r="C513" t="str">
+      <c r="B513" t="s">
+        <v>553</v>
+      </c>
+      <c r="C513">
         <f>_xlfn.XLOOKUP($B513,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>511</v>
       </c>
-      <c r="C514" t="str">
+      <c r="B514" t="s">
+        <v>551</v>
+      </c>
+      <c r="C514">
         <f>_xlfn.XLOOKUP($B514,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>512</v>
       </c>
-      <c r="C515" t="str">
+      <c r="B515" t="s">
+        <v>553</v>
+      </c>
+      <c r="C515">
         <f>_xlfn.XLOOKUP($B515,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>513</v>
       </c>
-      <c r="C516" t="str">
+      <c r="B516" t="s">
+        <v>553</v>
+      </c>
+      <c r="C516">
         <f>_xlfn.XLOOKUP($B516,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>514</v>
       </c>
-      <c r="C517" t="str">
+      <c r="B517" t="s">
+        <v>551</v>
+      </c>
+      <c r="C517">
         <f>_xlfn.XLOOKUP($B517,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>515</v>
       </c>
-      <c r="C518" t="str">
+      <c r="B518" t="s">
+        <v>554</v>
+      </c>
+      <c r="C518">
         <f>_xlfn.XLOOKUP($B518,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>516</v>
       </c>
-      <c r="C519" t="str">
+      <c r="B519" t="s">
+        <v>551</v>
+      </c>
+      <c r="C519">
         <f>_xlfn.XLOOKUP($B519,'Armour Classes'!$A$2:$A$7,'Armour Classes'!$B$2:$B$7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>517</v>
       </c>
@@ -7036,7 +8011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>518</v>
       </c>
@@ -7048,7 +8023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>519</v>
       </c>
@@ -7060,7 +8035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>520</v>
       </c>
@@ -7072,7 +8047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>521</v>
       </c>
@@ -7084,7 +8059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>522</v>
       </c>
@@ -7096,7 +8071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>523</v>
       </c>
@@ -7108,7 +8083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>524</v>
       </c>
@@ -7120,7 +8095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>525</v>
       </c>
@@ -7132,7 +8107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>526</v>
       </c>
@@ -7144,7 +8119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>527</v>
       </c>
@@ -7156,7 +8131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>528</v>
       </c>
@@ -7168,7 +8143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>529</v>
       </c>
@@ -7180,7 +8155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>530</v>
       </c>
@@ -7192,7 +8167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>531</v>
       </c>
@@ -7204,7 +8179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>532</v>
       </c>
@@ -7216,7 +8191,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>533</v>
       </c>
@@ -7228,7 +8203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>534</v>
       </c>
@@ -7240,7 +8215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>535</v>
       </c>
@@ -7252,7 +8227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>536</v>
       </c>
@@ -7264,7 +8239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>537</v>
       </c>
@@ -7276,7 +8251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>538</v>
       </c>
@@ -7288,7 +8263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>539</v>
       </c>
@@ -7300,7 +8275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>540</v>
       </c>
@@ -7312,7 +8287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>541</v>
       </c>
@@ -7324,7 +8299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>542</v>
       </c>
@@ -7336,7 +8311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>543</v>
       </c>
@@ -7348,7 +8323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>544</v>
       </c>
@@ -7360,7 +8335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>545</v>
       </c>
@@ -7372,7 +8347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>546</v>
       </c>
@@ -7386,6 +8361,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7397,12 +8373,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>547</v>
       </c>
@@ -7410,7 +8386,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>549</v>
       </c>
@@ -7418,7 +8394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>552</v>
       </c>
@@ -7426,7 +8402,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>551</v>
       </c>
@@ -7434,7 +8410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>553</v>
       </c>
@@ -7442,7 +8418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>554</v>
       </c>
@@ -7450,7 +8426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>550</v>
       </c>
